--- a/biology/Botanique/Monotagma/Monotagma.xlsx
+++ b/biology/Botanique/Monotagma/Monotagma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monotagma est un genre de plantes monocotylédones herbacées néotropicale appartenant à la famille des Marantaceae. Ce genre comprend aujourd'hui 39 espèces valides.
 </t>
@@ -511,10 +523,48 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List (16/11/2021)[2] :
-Espèces valides
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List (16/11/2021) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Monotagma</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monotagma</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces valides</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Monotagma anathronum J.F.Macbr.
 Monotagma angustissimum Loes.
 Monotagma aurantispathum Hagberg &amp; R.Erikss.
@@ -554,7 +604,43 @@
 Monotagma uliginosum Hagberg &amp; R.Erikss.
 Monotagma vaginatum Hagberg
 Monotagma yapacanensis Steyerm. &amp; Bunting
-Noms non résolus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Monotagma</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monotagma</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms non résolus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Monotagma aurantiacum Loes.
 Monotagma caprinense Huber
 Monotagma lachnecaula Miguel
